--- a/hostel_data_test.xlsx
+++ b/hostel_data_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Row Number</t>
   </si>
@@ -82,25 +82,31 @@
     <t>4.9</t>
   </si>
   <si>
+    <t>$136</t>
+  </si>
+  <si>
     <t>Free High Speed Internet (WiFi), Fitness Center with Gym / Workout Room, Pool, Coffee shop, Children's television networks, Highchairs available, Taxi service, Meeting rooms, Wifi, Sauna, Indoor pool, Breakfast available, Breakfast buffet, Complimentary tea, Complimentary welcome drink, Kid-friendly buffet, Snack bar, Special diet menus, Hammam, Steam room, 24-hour security, Baggage storage, Concierge, Newspaper, Non-smoking hotel, Sun loungers / beach chairs, 24-hour front desk, Dry cleaning, Laundry service, Ironing service, Blackout curtains, Soundproof rooms, Air conditioning, Housekeeping, Minibar, Flatscreen TV, Extra long beds, Bath / shower, Safe, Telephone, Bottled water, Wake-up service / alarm clock, Electric kettle, Complimentary toiletries, Hair dryer, Non-smoking rooms, Family rooms</t>
   </si>
   <si>
     <t>Free High Speed Internet (WiFi), Breakfast available, Taxi service, 24-hour security, Baggage storage, 24-hour front desk, Dry cleaning, Laundry service, Wifi, Complimentary Instant Coffee, Complimentary tea, Kid-friendly buffet, Snack bar, Special diet menus, Concierge, Non-smoking hotel, Ironing service, Allergy-free room, Blackout curtains, Air conditioning, Desk, Housekeeping, Minibar, Flatscreen TV, Bath / shower, Soundproof rooms, Safe, Telephone, Bottled water, Wake-up service / alarm clock, Electric kettle, Complimentary toiletries, Hair dryer, Non-smoking rooms, Family rooms</t>
   </si>
   <si>
-    <t>This summary was created by AI, based on recent reviews.</t>
-  </si>
-  <si>
-    <t>This hotel is on a safe, small side street and has excellent noise insulation to the outside.  We stayed in a superior connecting room (with swing - nice touch!) which was spacious with huge beds. We also had a double room in addition.  This was pleasant enough. Reception staff are very pleasant. Huge tv with large choice of channels. Galimard bath products high smell lovely. New bathrooms which were very clean Excellent air conditioning which works and is super quiet. Separate toilet (very small and a bit claustrophobic) All in all a great choice for location, value, quiet and size of  superior rooms (large by Paris standards). Some points - Lots of attention to detail in the room with brushed gold light switches and sockets.  But then old silver handles on the bathroom doors which just clash! Not a big issue at all but it’s as if lots of thought was put into some of the design but then not into others.  The circus theme decor is not to my taste, and doesn’t go with the lovely blush and gold wallpaper in the bathroom. That’s obviously just personal taste though, it has been nicely finished. - Very generous with the minibar in room, which includes plastic Evian bottles, glass juice bottles and cans.  Nowhere to separate this recycling in the bedroom - there is just one small bin under the desk where it is then mixed with all your other trash….so do they comb through it all by hand?!  Or maybe not! Refillable free water would be much more eco friendly. - Similarly in the bathroom there are large hand soap and body wash, but small plastic throwaway bottles of conditioner and shower gel. - Corridors felt a little cramped. - There were flies on the cakes at the free snacks during the afternoon - they are not covered, and really should be.</t>
-  </si>
-  <si>
-    <t>The hotel  is fab, perfect for couples, families and business. It’s clean and chic with contemporary features, the beds are very comfortable - had a great night sleep. The staff are lovely especially the breakfast team Arleen and Tejs were very friendly and helpful. Would definitely stay here again on our next visit to Paris. P.s the offer a free mini bar which is a nice touch.</t>
-  </si>
-  <si>
-    <t>Newly renovated hotel with great amenities and service in a great, safe neighborhood off a relatively quiet street. The elevator is big enough for guests and luggage. The room was thoughtfully designed with power switches and usb and c chargers on each side. The window had blackout curtains and opened up to a quiet courtyard. The beds and bedding were comfortable. The bathroom was cozy but laid out well and had a fan that quietly runs constantly which keeps the mirror from fogging after the shower. The lobby and dining area are nice and would be great for groups or families to relax together outside of their rooms. We didn’t eat breakfast at the hotel but the evening snack bar was nice.</t>
-  </si>
-  <si>
-    <t>Tj did a fantastic job, very welcoming and generous with his time - he made our breakfast even better, especially the Delicious scrambled eggs for breakfast. Modern hotel, very friendly and walking distance to a lot of cafes, restaurants and bars.</t>
+    <t>L’hôtel Astra se trouve dans le 9ème arrondissement, à deux pas de l’Opéra Garnier, des Grands Boulevards, de la Place Vendôme et de la rue de la Paix. Idéalement situé à proximité des centres d’affaires de la capitale, notre établissement 4 étoiles vous invite au divertissement grâce à son emplacement au cœur du quartier des théâtres, des Grands Magasins, lieux incontournables de la ville Lumière. Vous pourrez également accéder à Disneyland Paris de manière très facile. Accueilli par notre équipe à votre écoute, discrète et chaleureuse, vous serez charmé par nos 73 chambres à thème vous invitant à un voyage dans les univers du cirque Bouglione, de la danseuse-étoile Marie-Agnès Gillot, de l’astronaute Claudie Haigneré, et de l'acteur et metteur en scène français Daniel Auteuil.Read more</t>
+  </si>
+  <si>
+    <t>At the heart of a quiet street between Opera and major department stores , a short walk from the Gare Saint Lazare, close to Rome station, the Astoria Opera Hotel sits in a central location with direct access to the Champs Elysees - within 10 minutes via Metro, or to the picturesque neighborhood of Montmartre. Our professional and caring staff will welcome you in our cozy lobby, fitted with comfortable leather sofas. Our 86 rooms are decorated with warm colours and contemporary furnishings. They are all carpeted, equipped with satellite TV and feature a private bathroom with hairdryer. This welcoming and cozy atmosphere is intended to make your stay as relaxing and comfortable as possible.Read more</t>
+  </si>
+  <si>
+    <t>Such an amazing hotel. Paul is very nice and picturesque. The hotel is also quite close to everything / cantered. Me and my family loved it. I strongly recommend it for couples as it is very cute. Also, the receptionist was lovely so are all of the staff!</t>
+  </si>
+  <si>
+    <t>Service is superb! Tej and Arlene are one of the best people in this hotel.  They are so entertaining, kind, and even helps you find your way to anywhere in Paris. Their humor and service is top tier and hotel's a walking distance to malls and restaurants 😊</t>
+  </si>
+  <si>
+    <t>Hotel is centrally located in the Opera district near Galleries La Fayette close to a number of train and metro stations, but is in a quiet street with lots of local business. We stayed at the 7th floor suite, which has great views of the top of Opera and Eiffel Tower which truly made it memorable. Didn’t get to use the pool and steam rooms but heard it was excellent.  Staff were very attentive to our needs, especially as we are traveling with my elderly mom and 4 year old. They made our stay very special. Highly recommend and I’ll likely stay here again or open to try another Astotel property next time.</t>
+  </si>
+  <si>
+    <t>Everything was excelent. The room is clean and confertable. Hotel very close to bus and metro statitons. Breakfast is filling and delicious.  There are cookies and drinks in loby 24 hours. The hotel personels were frendly, and helpful.  Special thanks TJ.</t>
   </si>
   <si>
     <t>Positive</t>
@@ -556,25 +562,25 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -599,26 +605,29 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
